--- a/src/main/java/org/example/tasks.xlsx
+++ b/src/main/java/org/example/tasks.xlsx
@@ -16,23 +16,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>number</t>
+    <t>номер задачи</t>
   </si>
   <si>
-    <t>idWorker</t>
+    <t>id исполнителя</t>
   </si>
   <si>
-    <t>remainingHours</t>
+    <t>время выполнения</t>
   </si>
   <si>
-    <t>status</t>
+    <t>задача не выполнена</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -42,12 +42,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -75,7 +69,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -289,12 +283,15 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A2:D4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="14.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/src/main/java/org/example/tasks.xlsx
+++ b/src/main/java/org/example/tasks.xlsx
@@ -283,15 +283,15 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D4" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
